--- a/Xtras/MSExcel/DebeHaber/DebeHaber.xlsx
+++ b/Xtras/MSExcel/DebeHaber/DebeHaber.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Tribuno\DebeHaber\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView minimized="1" xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DebeHaber" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="MatrizDetalle">DebeHaber!$D$16:$D$19</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Fecha</t>
   </si>
@@ -79,6 +77,12 @@
   </si>
   <si>
     <t>Jujuy JY AR-Y 673 307 53 219 12,6 + San Salvador de Jujuy</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
   </si>
 </sst>
 </file>
@@ -248,7 +252,7 @@
       <calculatedColumnFormula>SUM( INDEX(DebeHaber[Debe],1) : DebeHaber[[#This Row],[Debe]] )-SUM( INDEX(DebeHaber[Haber],1) : DebeHaber[[#This Row],[Haber]] )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -295,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -714,6 +718,50 @@
       </c>
       <c r="J8" s="7"/>
     </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(INDEX(MatrizDetalle,1):D16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(INDEX(MatrizDetalle,1):D17)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f>SUM(INDEX(MatrizDetalle,1):D18)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(INDEX(MatrizDetalle,1):D19)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
